--- a/data/Lung_Cancer_DataDic.xlsx
+++ b/data/Lung_Cancer_DataDic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangdongjae/Desktop/2020/대외활동/암센터 빅데이터 플랫폼 경진대회/Cancer_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5777B8E8-1CC7-A549-9324-3622C73B8E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA859C11-0576-334B-8F18-4A29A88D231C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19520" xr2:uid="{523DFC97-B139-B046-A631-F3FD46592C87}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Data Table Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,6 +209,103 @@
   </si>
   <si>
     <t>float65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENTER_CD</t>
+  </si>
+  <si>
+    <t>DIAG_KNM</t>
+  </si>
+  <si>
+    <t>DIAG_YMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단일자</t>
+  </si>
+  <si>
+    <t>진단등록일 (수집기준일자)</t>
+  </si>
+  <si>
+    <t>DIAG_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단순번</t>
+  </si>
+  <si>
+    <t>LUCN_DIAG_CLSF_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAG_CLSF_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단구분명</t>
+  </si>
+  <si>
+    <t>진단구분명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAG_KIND_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단종류코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAG_KIND_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단종류이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAG_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드</t>
+  </si>
+  <si>
+    <t>진단코드(KCD) C 또는 D 이하 모든 코드</t>
+  </si>
+  <si>
+    <t>진단코드의 폐암진단종류코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단코드의 폐암진단종류이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단한글명</t>
+  </si>
+  <si>
+    <t>진단코드(KCD) C 또는 D 이하 모든 코드 한글명</t>
+  </si>
+  <si>
+    <t>DIAG_ENM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단영문명</t>
+  </si>
+  <si>
+    <t>진단코드(KCD) C 또는 D 이하 모든 코드 영문명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단 구분 코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -309,14 +406,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3E6BEC-25CF-9E4F-88BA-0692D249BFFE}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -647,7 +744,7 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -675,7 +772,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -684,21 +781,21 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -712,10 +809,10 @@
       <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -723,7 +820,7 @@
       <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
@@ -731,15 +828,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
@@ -747,15 +844,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F6" t="s">
@@ -763,113 +860,282 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" ht="20">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="20">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="2"/>
-      <c r="H24" s="3"/>
+    <row r="36" spans="1:8">
+      <c r="H36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{D5E047B0-9114-AD43-9DE2-0193909A7FED}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{F2FEE0EC-0E71-A740-AECB-12064328CF82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
